--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -73,12 +73,12 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -94,12 +94,12 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
@@ -118,52 +118,49 @@
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -527,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +535,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -670,13 +667,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6986301369863014</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="C5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.348993288590604</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3430232558139535</v>
+        <v>0.3313953488372093</v>
       </c>
       <c r="C8">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D8">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
@@ -896,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2751322751322751</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1825396825396825</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
@@ -996,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1018766756032172</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7758620689655172</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1043,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7746478873239436</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,13 +1069,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7583333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L13">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1098,13 +1095,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7450980392156863</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1176,13 +1173,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.71875</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1202,13 +1199,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6702127659574468</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L18">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1228,13 +1225,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6292428198433421</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L19">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1254,13 +1251,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6031331592689295</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1306,13 +1303,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5676470588235294</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L22">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M22">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1332,13 +1329,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5393258426966292</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L23">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1358,13 +1355,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5254237288135594</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L24">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M24">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1384,13 +1381,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4811715481171548</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L25">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>124</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1410,13 +1407,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4769230769230769</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1436,13 +1433,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4383561643835616</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1462,13 +1459,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4375</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1491,10 +1488,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1514,13 +1511,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.1124401913875598</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L30">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1540,13 +1537,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.0889423076923077</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1566,13 +1563,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.06040268456375839</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L32">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M32">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1592,25 +1589,25 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.04555555555555556</v>
+        <v>0.04328523862375139</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1618,25 +1615,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.03121387283236994</v>
+        <v>0.03082671648762261</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>838</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1644,51 +1641,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.02570093457943925</v>
+        <v>0.01194318915429309</v>
       </c>
       <c r="L35">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36">
-        <v>0.01514663229133097</v>
-      </c>
-      <c r="L36">
-        <v>47</v>
-      </c>
-      <c r="M36">
-        <v>51</v>
-      </c>
-      <c r="N36">
-        <v>0.92</v>
-      </c>
-      <c r="O36">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>3056</v>
+        <v>3061</v>
       </c>
     </row>
   </sheetData>
